--- a/INSTAGRAM HLR REPORT.xlsx
+++ b/INSTAGRAM HLR REPORT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SOFTWERE TESTING\Manual Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Testing\Manual Testing\Module 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9F65B2-AF91-4BBA-92B4-4D69A53F68A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7579C97-033B-4876-A2C4-02B901C63C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{C0797262-A4FE-4D9C-858E-0592E1D6C4DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C0797262-A4FE-4D9C-858E-0592E1D6C4DE}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTAGRAM HLR REPORT" sheetId="1" r:id="rId1"/>
@@ -713,17 +713,10 @@
 3) Register witho your mobile number</t>
   </si>
   <si>
-    <t>Mobile Number : 9601476734</t>
-  </si>
-  <si>
     <t>Phone number will be registered and and account will be created</t>
   </si>
   <si>
     <t>Verify that for a new mobile number user will get a verification code on his mobile and filling in the same verifies the new user account.</t>
-  </si>
-  <si>
-    <t>Mobile Number : 9601476734
-Verification Code : WXY2-R837</t>
   </si>
   <si>
     <t>Device will be linked o the whatsapp</t>
@@ -763,10 +756,6 @@
 2) Press enter
 3) Register witho your mobile number
 4) Enter verification code</t>
-  </si>
-  <si>
-    <t>Mobile Number :9601476734
-Verification Code : XY2C-7AY8</t>
   </si>
   <si>
     <t>Login will be failed</t>
@@ -833,35 +822,46 @@
     <t>Enterring invalid format of email id</t>
   </si>
   <si>
-    <t>Email : vikasgmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify that, the subject accepts numbers, letters special characters </t>
   </si>
   <si>
-    <t>Subject : vikas 201180107509 [!@#$%^&amp;*()]</t>
-  </si>
-  <si>
     <t>Response will be submitted</t>
   </si>
   <si>
     <t>Verify that, the comment or message field accepts numbers, letters and special characters</t>
   </si>
   <si>
-    <t>Comment of Message : vikas 99148287 [!@#$%^&amp;*()]</t>
-  </si>
-  <si>
     <t>Check the submit button</t>
   </si>
   <si>
-    <t>First Name : Vikas
-Last Name : Vaghela
-Email : vikascsc99@gmail.com
+    <t xml:space="preserve">If the all fields are valid, response will be submitted </t>
+  </si>
+  <si>
+    <t>Email id : devarshgmail.com</t>
+  </si>
+  <si>
+    <t>Subject : devarsh 201180107509 [!@#$%^&amp;*()]</t>
+  </si>
+  <si>
+    <t>Comment of Message : devarsh 99148287 [!@#$%^&amp;*()]</t>
+  </si>
+  <si>
+    <t>First Name : devarsh
+Last Name : katudiya
+Email : devarsh 12@gmail.com
 Subject : Hello World
 Comment or Message : I need more articles about selenium. Thank you</t>
   </si>
   <si>
-    <t xml:space="preserve">If the all fields are valid, response will be submitted </t>
+    <t>Mobile Number : 9023076296</t>
+  </si>
+  <si>
+    <t>Mobile Number : 9023076296
+Verification Code : WXY2-R837</t>
+  </si>
+  <si>
+    <t>Mobile Number :9023076296
+Verification Code : XY2C-7AY8</t>
   </si>
 </sst>
 </file>
@@ -1288,8 +1288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0AACCE-0F76-4F02-A72E-00CDD7D42942}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1558,8 +1558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9050CF-841C-4F8A-90D3-35FF21389ADE}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1927,7 +1927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D53FBC-4E01-479F-9D13-D8EFDA3DE629}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -2389,7 +2389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D5C9FA-E18C-4EA9-9043-9349876539B8}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="E10" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -2709,8 +2709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D729517-D6C5-43DE-8143-EDA0128004FD}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2760,20 +2760,20 @@
         <v>132</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>139</v>
@@ -2787,20 +2787,20 @@
         <v>141</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>139</v>
@@ -2814,20 +2814,20 @@
         <v>145</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>139</v>
@@ -2841,20 +2841,20 @@
         <v>147</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>139</v>
@@ -2868,22 +2868,22 @@
         <v>149</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>139</v>
@@ -2897,22 +2897,22 @@
         <v>152</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>139</v>
@@ -2926,22 +2926,22 @@
         <v>154</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>139</v>
@@ -2955,22 +2955,22 @@
         <v>156</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>139</v>
@@ -2984,22 +2984,22 @@
         <v>158</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>139</v>
@@ -3013,22 +3013,22 @@
         <v>160</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>139</v>
@@ -3042,22 +3042,22 @@
         <v>162</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>139</v>
@@ -3137,10 +3137,10 @@
         <v>212</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>139</v>
@@ -3157,7 +3157,7 @@
         <v>210</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>135</v>
@@ -3166,10 +3166,10 @@
         <v>212</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>139</v>
@@ -3186,7 +3186,7 @@
         <v>210</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>135</v>
@@ -3195,10 +3195,10 @@
         <v>212</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>139</v>
@@ -3215,7 +3215,7 @@
         <v>210</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>135</v>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>139</v>
@@ -3242,17 +3242,17 @@
         <v>210</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>135</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>139</v>
@@ -3269,17 +3269,17 @@
         <v>210</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>135</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>139</v>
@@ -3296,19 +3296,19 @@
         <v>210</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>135</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>139</v>

--- a/INSTAGRAM HLR REPORT.xlsx
+++ b/INSTAGRAM HLR REPORT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Testing\Manual Testing\Module 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7579C97-033B-4876-A2C4-02B901C63C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E484100-3173-481C-9CAC-1AD542BB6F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C0797262-A4FE-4D9C-858E-0592E1D6C4DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="7" xr2:uid="{C0797262-A4FE-4D9C-858E-0592E1D6C4DE}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTAGRAM HLR REPORT" sheetId="1" r:id="rId1"/>
@@ -1288,7 +1288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0AACCE-0F76-4F02-A72E-00CDD7D42942}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -3075,8 +3075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E4F96D-2803-4075-892D-17D29FD5F8DA}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
